--- a/result/without_base/12/valence/s01_1.xlsx
+++ b/result/without_base/12/valence/s01_1.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5566666722297668</v>
+        <v>0.5625</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -516,7 +516,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6199999849001566</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C2" t="n">
-        <v>20137.96158854167</v>
+        <v>41732.330078125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5627272670919244</v>
+        <v>0.554886360060085</v>
       </c>
       <c r="E2" t="n">
-        <v>20138.77068536932</v>
+        <v>41735.21022727273</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5583333174387614</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C3" t="n">
-        <v>19377.42057291667</v>
+        <v>40975.185546875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5828787860545245</v>
+        <v>0.5723863623358987</v>
       </c>
       <c r="E3" t="n">
-        <v>19377.10813210227</v>
+        <v>40974.40305397727</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5933333436648051</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C4" t="n">
-        <v>18643.65885416667</v>
+        <v>40221.62890625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6040909073569558</v>
+        <v>0.606931821866469</v>
       </c>
       <c r="E4" t="n">
-        <v>18642.83212002841</v>
+        <v>40220.36186079546</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6166666547457377</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C5" t="n">
-        <v>17935.8671875</v>
+        <v>39476.9765625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6168181760744615</v>
+        <v>0.6246590939435092</v>
       </c>
       <c r="E5" t="n">
-        <v>17935.21697443182</v>
+        <v>39475.71200284091</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5866666833559672</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C6" t="n">
-        <v>17254.30924479167</v>
+        <v>38745.2265625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6353030340238051</v>
+        <v>0.6360227303071455</v>
       </c>
       <c r="E6" t="n">
-        <v>17253.17320667614</v>
+        <v>38742.22336647727</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5266666809717814</v>
+        <v>0.6199999749660492</v>
       </c>
       <c r="C7" t="n">
-        <v>16598.12044270833</v>
+        <v>38023.029296875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6201515170660886</v>
+        <v>0.665795461698012</v>
       </c>
       <c r="E7" t="n">
-        <v>16597.06764914773</v>
+        <v>38019.79154829546</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5716666579246521</v>
+        <v>0.5625</v>
       </c>
       <c r="C8" t="n">
-        <v>15963.98502604167</v>
+        <v>37311.69140625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655454543503848</v>
+        <v>0.683522722937844</v>
       </c>
       <c r="E8" t="n">
-        <v>15962.61155007102</v>
+        <v>37308.09730113636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5300000111262003</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C9" t="n">
-        <v>15353.72591145833</v>
+        <v>36612.671875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6830303018743341</v>
+        <v>0.6781818162311207</v>
       </c>
       <c r="E9" t="n">
-        <v>15351.95916193182</v>
+        <v>36608.36186079546</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5416666567325592</v>
+        <v>0.6149999797344208</v>
       </c>
       <c r="C10" t="n">
-        <v>14764.54524739583</v>
+        <v>35923.701171875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6931818181818182</v>
+        <v>0.6855681809512052</v>
       </c>
       <c r="E10" t="n">
-        <v>14763.34193004261</v>
+        <v>35919.27130681818</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5366666714350382</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="C11" t="n">
-        <v>14197.84147135417</v>
+        <v>35245.283203125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7074242450974204</v>
+        <v>0.7248863577842712</v>
       </c>
       <c r="E11" t="n">
-        <v>14196.13210227273</v>
+        <v>35240.83700284091</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5800000031789144</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C12" t="n">
-        <v>13650.873046875</v>
+        <v>34578.6015625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7056060568852858</v>
+        <v>0.7399999824437228</v>
       </c>
       <c r="E12" t="n">
-        <v>13649.5058149858</v>
+        <v>34573.92684659091</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5483333269755045</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C13" t="n">
-        <v>13124.64583333333</v>
+        <v>33923.892578125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7259090949188579</v>
+        <v>0.7388636307282881</v>
       </c>
       <c r="E13" t="n">
-        <v>13123.03866299716</v>
+        <v>33918.82386363636</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5800000031789144</v>
+        <v>0.5625</v>
       </c>
       <c r="C14" t="n">
-        <v>12617.51595052083</v>
+        <v>33279.400390625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6999999989162792</v>
+        <v>0.7642045400359414</v>
       </c>
       <c r="E14" t="n">
-        <v>12615.98899147727</v>
+        <v>33274.34872159091</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5966666539510092</v>
+        <v>0.6149999797344208</v>
       </c>
       <c r="C15" t="n">
-        <v>12128.39290364583</v>
+        <v>32646.3212890625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7156060608950529</v>
+        <v>0.7687499902465127</v>
       </c>
       <c r="E15" t="n">
-        <v>12126.95965021307</v>
+        <v>32641.29030539773</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5399999817212423</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C16" t="n">
-        <v>11657.58463541667</v>
+        <v>32023.6689453125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7449999993497675</v>
+        <v>0.7893181822516702</v>
       </c>
       <c r="E16" t="n">
-        <v>11655.87642045455</v>
+        <v>32018.78622159091</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5516666571299235</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C17" t="n">
-        <v>11203.6279296875</v>
+        <v>31412.1064453125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7578787884928964</v>
+        <v>0.7928409088741649</v>
       </c>
       <c r="E17" t="n">
-        <v>11202.12175958807</v>
+        <v>31407.47958096591</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.57833331823349</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C18" t="n">
-        <v>10766.65201822917</v>
+        <v>30811.326171875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7742424282160673</v>
+        <v>0.7868181792172518</v>
       </c>
       <c r="E18" t="n">
-        <v>10765.00528231534</v>
+        <v>30806.60724431818</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5733333230018616</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C19" t="n">
-        <v>10345.36751302083</v>
+        <v>30221.8876953125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7593939439816908</v>
+        <v>0.7912500121376731</v>
       </c>
       <c r="E19" t="n">
-        <v>10344.07990056818</v>
+        <v>30216.53107244318</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5683333277702332</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C20" t="n">
-        <v>9939.611002604166</v>
+        <v>29640.8486328125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7793939330361106</v>
+        <v>0.8337500095367432</v>
       </c>
       <c r="E20" t="n">
-        <v>9938.287331321022</v>
+        <v>29636.12127130682</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5849999785423279</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C21" t="n">
-        <v>9548.871419270834</v>
+        <v>29070.552734375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7890909070318396</v>
+        <v>0.8413636359301481</v>
       </c>
       <c r="E21" t="n">
-        <v>9547.57364169034</v>
+        <v>29066.31658380682</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5916666587193807</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C22" t="n">
-        <v>9172.524088541666</v>
+        <v>28511.515625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7813636308366602</v>
+        <v>0.8452272740277377</v>
       </c>
       <c r="E22" t="n">
-        <v>9171.27792080966</v>
+        <v>28506.734375</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5716666579246521</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C23" t="n">
-        <v>8809.994791666666</v>
+        <v>27961.724609375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7934848503632979</v>
+        <v>0.8528409112583507</v>
       </c>
       <c r="E23" t="n">
-        <v>8808.867498224432</v>
+        <v>27956.93430397727</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5816666682561239</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C24" t="n">
-        <v>8461.146809895834</v>
+        <v>27421.3740234375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7924242453141646</v>
+        <v>0.8628409071402117</v>
       </c>
       <c r="E24" t="n">
-        <v>8459.89453125</v>
+        <v>27416.85067471591</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5883333484331766</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C25" t="n">
-        <v>8125.02392578125</v>
+        <v>26891.23828125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7775757556611841</v>
+        <v>0.8622727285731923</v>
       </c>
       <c r="E25" t="n">
-        <v>8123.884743430398</v>
+        <v>26886.62482244318</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5716666579246521</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C26" t="n">
-        <v>7801.356608072917</v>
+        <v>26370.294921875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7962121123617346</v>
+        <v>0.8626136400482871</v>
       </c>
       <c r="E26" t="n">
-        <v>7800.301624644886</v>
+        <v>26365.78835227273</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4966666499773661</v>
+        <v>0.5350000113248825</v>
       </c>
       <c r="C27" t="n">
-        <v>7490.222981770833</v>
+        <v>25858.4345703125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7772727283564481</v>
+        <v>0.8765909075737</v>
       </c>
       <c r="E27" t="n">
-        <v>7488.95654296875</v>
+        <v>25854.24538352273</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5616666475931803</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C28" t="n">
-        <v>7190.099772135417</v>
+        <v>25355.68359375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8030302985147997</v>
+        <v>0.8826136318120089</v>
       </c>
       <c r="E28" t="n">
-        <v>7188.965287642045</v>
+        <v>25351.92080965909</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5849999984105428</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C29" t="n">
-        <v>6901.389811197917</v>
+        <v>24863.24609375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7992424233393236</v>
+        <v>0.8651136322454973</v>
       </c>
       <c r="E29" t="n">
-        <v>6900.315030184659</v>
+        <v>24858.88441051136</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C30" t="n">
-        <v>6623.450358072917</v>
+        <v>24378.546875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8054545386271044</v>
+        <v>0.8824999982660467</v>
       </c>
       <c r="E30" t="n">
-        <v>6622.408558238636</v>
+        <v>24374.54403409091</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.596666673819224</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C31" t="n">
-        <v>6355.8876953125</v>
+        <v>23902.8740234375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7956060658801686</v>
+        <v>0.8926136331124739</v>
       </c>
       <c r="E31" t="n">
-        <v>6354.942294034091</v>
+        <v>23898.99502840909</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6116666595141093</v>
+        <v>0.5324999839067459</v>
       </c>
       <c r="C32" t="n">
-        <v>6098.422688802083</v>
+        <v>23436.5908203125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7816666689786044</v>
+        <v>0.8993181857195768</v>
       </c>
       <c r="E32" t="n">
-        <v>6097.58857865767</v>
+        <v>23432.15482954546</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5766666730244955</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C33" t="n">
-        <v>5850.877766927083</v>
+        <v>22977.3828125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7633333341641859</v>
+        <v>0.8980681787837635</v>
       </c>
       <c r="E33" t="n">
-        <v>5849.935413707386</v>
+        <v>22973.82581676136</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5700000127156576</v>
+        <v>0.5425000041723251</v>
       </c>
       <c r="C34" t="n">
-        <v>5612.869466145833</v>
+        <v>22527.87109375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7475757571783933</v>
+        <v>0.9039772694761102</v>
       </c>
       <c r="E34" t="n">
-        <v>5611.717817826705</v>
+        <v>22523.80575284091</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5649999777475992</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C35" t="n">
-        <v>5382.8251953125</v>
+        <v>22085.80078125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7890909097411416</v>
+        <v>0.9104545387354764</v>
       </c>
       <c r="E35" t="n">
-        <v>5382.0654296875</v>
+        <v>22082.01278409091</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5983333388964335</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C36" t="n">
-        <v>5162.18212890625</v>
+        <v>21651.8203125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7624242495406758</v>
+        <v>0.9195454554124312</v>
       </c>
       <c r="E36" t="n">
-        <v>5161.486638849432</v>
+        <v>21648.267578125</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5800000031789144</v>
+        <v>0.5299999862909317</v>
       </c>
       <c r="C37" t="n">
-        <v>4949.899576822917</v>
+        <v>21226.3525390625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7546969679268923</v>
+        <v>0.8713636235757307</v>
       </c>
       <c r="E37" t="n">
-        <v>4949.199440696023</v>
+        <v>21222.76722301136</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6216666698455811</v>
+        <v>0.487500011920929</v>
       </c>
       <c r="C38" t="n">
-        <v>4745.722493489583</v>
+        <v>20808.357421875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.767272721637379</v>
+        <v>0.8815909028053284</v>
       </c>
       <c r="E38" t="n">
-        <v>4744.892711292614</v>
+        <v>20804.69797585227</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6516666611035665</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C39" t="n">
-        <v>4548.973958333333</v>
+        <v>20398.0751953125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7887878743084994</v>
+        <v>0.8860227194699374</v>
       </c>
       <c r="E39" t="n">
-        <v>4548.355069247159</v>
+        <v>20394.41299715909</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C40" t="n">
-        <v>4360.092122395833</v>
+        <v>19995.0869140625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7712121199477803</v>
+        <v>0.9135227257555182</v>
       </c>
       <c r="E40" t="n">
-        <v>4359.475430575284</v>
+        <v>19991.50177556818</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5849999984105428</v>
+        <v>0.552499994635582</v>
       </c>
       <c r="C41" t="n">
-        <v>4178.643391927083</v>
+        <v>19599.6083984375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7562121179970828</v>
+        <v>0.9271590872244402</v>
       </c>
       <c r="E41" t="n">
-        <v>4177.850275213068</v>
+        <v>19596.103515625</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6099999944368998</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C42" t="n">
-        <v>4003.783040364583</v>
+        <v>19211.9248046875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7496969672766599</v>
+        <v>0.923863638531078</v>
       </c>
       <c r="E42" t="n">
-        <v>4003.193303888494</v>
+        <v>19208.06782670454</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.5474999994039536</v>
       </c>
       <c r="C43" t="n">
-        <v>3835.73974609375</v>
+        <v>18830.6484375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7683333348144185</v>
+        <v>0.9399999921972101</v>
       </c>
       <c r="E43" t="n">
-        <v>3835.154285777699</v>
+        <v>18827.06800426136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6049999992052714</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C44" t="n">
-        <v>3674.326904296875</v>
+        <v>18456.6083984375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7431818165562369</v>
+        <v>0.9455681822516702</v>
       </c>
       <c r="E44" t="n">
-        <v>3673.788585316051</v>
+        <v>18453.138671875</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="C45" t="n">
-        <v>3519.037027994792</v>
+        <v>18089.4482421875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7724242345853285</v>
+        <v>0.9301136406985197</v>
       </c>
       <c r="E45" t="n">
-        <v>3518.475752397017</v>
+        <v>18086.19087357954</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5983333388964335</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C46" t="n">
-        <v>3369.826009114583</v>
+        <v>17730.0400390625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.760303028605201</v>
+        <v>0.8852272738109935</v>
       </c>
       <c r="E46" t="n">
-        <v>3369.319003018466</v>
+        <v>17726.16779119318</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6433333357175192</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="C47" t="n">
-        <v>3226.393473307292</v>
+        <v>17376.3857421875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.773181823166934</v>
+        <v>0.9134090922095559</v>
       </c>
       <c r="E47" t="n">
-        <v>3225.967096502131</v>
+        <v>17372.54705255682</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6116666595141093</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C48" t="n">
-        <v>3088.765380859375</v>
+        <v>17029.0068359375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7203030315312472</v>
+        <v>0.9164772792295977</v>
       </c>
       <c r="E48" t="n">
-        <v>3088.349587180398</v>
+        <v>17025.55770596591</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5633333325386047</v>
+        <v>0.5274999886751175</v>
       </c>
       <c r="C49" t="n">
-        <v>2956.844401041667</v>
+        <v>16688.275390625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6243939413265749</v>
+        <v>0.9396590807221152</v>
       </c>
       <c r="E49" t="n">
-        <v>2956.354259144176</v>
+        <v>16684.93128551136</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6216666698455811</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C50" t="n">
-        <v>2829.268798828125</v>
+        <v>16353.943359375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7153030390089209</v>
+        <v>0.9331818222999573</v>
       </c>
       <c r="E50" t="n">
-        <v>2828.916581587358</v>
+        <v>16350.734375</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5816666682561239</v>
+        <v>0.5625</v>
       </c>
       <c r="C51" t="n">
-        <v>2707.2763671875</v>
+        <v>16025.40673828125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7230303152041002</v>
+        <v>0.9457954493435946</v>
       </c>
       <c r="E51" t="n">
-        <v>2706.804043856534</v>
+        <v>16022.67356178977</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6416666706403097</v>
+        <v>0.5574999749660492</v>
       </c>
       <c r="C52" t="n">
-        <v>2589.99072265625</v>
+        <v>15703.5791015625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6777272766286676</v>
+        <v>0.940681820566004</v>
       </c>
       <c r="E52" t="n">
-        <v>2589.730601917614</v>
+        <v>15700.76553622159</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6383333404858907</v>
+        <v>0.5350000113248825</v>
       </c>
       <c r="C53" t="n">
-        <v>2477.262613932292</v>
+        <v>15387.81982421875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7195454592054541</v>
+        <v>0.9497727264057506</v>
       </c>
       <c r="E53" t="n">
-        <v>2477.017356178977</v>
+        <v>15384.86736505682</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.574999988079071</v>
+        <v>0.4849999994039536</v>
       </c>
       <c r="C54" t="n">
-        <v>2369.400716145833</v>
+        <v>15077.931640625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7216666665944186</v>
+        <v>0.9352272748947144</v>
       </c>
       <c r="E54" t="n">
-        <v>2368.936678799716</v>
+        <v>15074.92684659091</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5583333174387614</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C55" t="n">
-        <v>2265.693684895833</v>
+        <v>14773.49560546875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.618030309677124</v>
+        <v>0.9430681792172518</v>
       </c>
       <c r="E55" t="n">
-        <v>2265.465176669034</v>
+        <v>14770.70454545455</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5966666539510092</v>
+        <v>0.554999977350235</v>
       </c>
       <c r="C56" t="n">
-        <v>2165.877197265625</v>
+        <v>14474.9384765625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7380303036082875</v>
+        <v>0.9469318118962374</v>
       </c>
       <c r="E56" t="n">
-        <v>2165.58036665483</v>
+        <v>14472.19185014205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5849999984105428</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C57" t="n">
-        <v>2070.657552083333</v>
+        <v>14182.173828125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6293939379128543</v>
+        <v>0.9327272772789001</v>
       </c>
       <c r="E57" t="n">
-        <v>2070.365633877841</v>
+        <v>14179.32013494318</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5383333265781403</v>
+        <v>0.5000000149011612</v>
       </c>
       <c r="C58" t="n">
-        <v>1978.808186848958</v>
+        <v>13894.7021484375</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6996969716115431</v>
+        <v>0.9319318207827482</v>
       </c>
       <c r="E58" t="n">
-        <v>1978.441950017756</v>
+        <v>13891.90092329545</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5900000135103861</v>
+        <v>0.5375000089406967</v>
       </c>
       <c r="C59" t="n">
-        <v>1890.767130533854</v>
+        <v>13612.65576171875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6998484839092601</v>
+        <v>0.9027272679589011</v>
       </c>
       <c r="E59" t="n">
-        <v>1890.491277521307</v>
+        <v>13609.92906605114</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.5375000089406967</v>
       </c>
       <c r="C60" t="n">
-        <v>1806.507242838542</v>
+        <v>13335.73388671875</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6230303049087524</v>
+        <v>0.9262499971823259</v>
       </c>
       <c r="E60" t="n">
-        <v>1806.278952858665</v>
+        <v>13333.09366122159</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6116666595141093</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C61" t="n">
-        <v>1725.408732096354</v>
+        <v>13064.0927734375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6692424253983931</v>
+        <v>0.9196590889583934</v>
       </c>
       <c r="E61" t="n">
-        <v>1725.309731223366</v>
+        <v>13061.54607599432</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6033333341280619</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C62" t="n">
-        <v>1647.889404296875</v>
+        <v>12797.60498046875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6781818162311207</v>
+        <v>0.9386363625526428</v>
       </c>
       <c r="E62" t="n">
-        <v>1647.672740589489</v>
+        <v>12795.08407315341</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6083333293596903</v>
+        <v>0.5475000143051147</v>
       </c>
       <c r="C63" t="n">
-        <v>1573.511555989583</v>
+        <v>12536.015625</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6695454499938271</v>
+        <v>0.9485227194699374</v>
       </c>
       <c r="E63" t="n">
-        <v>1573.352322665128</v>
+        <v>12533.65216619318</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C64" t="n">
-        <v>1502.191650390625</v>
+        <v>12279.52978515625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6918181885372509</v>
+        <v>0.9205681898377158</v>
       </c>
       <c r="E64" t="n">
-        <v>1502.02421985973</v>
+        <v>12277.23037997159</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5449999968210856</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C65" t="n">
-        <v>1434.109008789062</v>
+        <v>12027.80322265625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5896969708529386</v>
+        <v>0.9393181800842285</v>
       </c>
       <c r="E65" t="n">
-        <v>1433.992209694602</v>
+        <v>12025.54385653409</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.546666661898295</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C66" t="n">
-        <v>1368.477010091146</v>
+        <v>11781.3291015625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.672424237836491</v>
+        <v>0.9044318090785634</v>
       </c>
       <c r="E66" t="n">
-        <v>1368.305996981534</v>
+        <v>11778.73375355114</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.54666668176651</v>
+        <v>0.5525000095367432</v>
       </c>
       <c r="C67" t="n">
-        <v>1305.749145507812</v>
+        <v>11538.81982421875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6412121165882457</v>
+        <v>0.9004545374350115</v>
       </c>
       <c r="E67" t="n">
-        <v>1305.666553844105</v>
+        <v>11536.521484375</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5866666634877523</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C68" t="n">
-        <v>1245.747680664062</v>
+        <v>11301.23583984375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6384848545898091</v>
+        <v>0.9181818149306558</v>
       </c>
       <c r="E68" t="n">
-        <v>1245.606034712358</v>
+        <v>11298.86594460227</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6566666563351949</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C69" t="n">
-        <v>1188.113688151042</v>
+        <v>11067.99365234375</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6645454520528967</v>
+        <v>0.9259090965444391</v>
       </c>
       <c r="E69" t="n">
-        <v>1188.047507546165</v>
+        <v>11065.74742542614</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C70" t="n">
-        <v>1133.228068033854</v>
+        <v>10839.16552734375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6033333363858137</v>
+        <v>0.9172727248885415</v>
       </c>
       <c r="E70" t="n">
-        <v>1133.120267001065</v>
+        <v>10837.0751953125</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.574999988079071</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C71" t="n">
-        <v>1080.400390625</v>
+        <v>10615.0078125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6478787877342918</v>
+        <v>0.9239772666584362</v>
       </c>
       <c r="E71" t="n">
-        <v>1080.317693536932</v>
+        <v>10612.72682883523</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5849999984105428</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C72" t="n">
-        <v>1029.986897786458</v>
+        <v>10394.46044921875</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6531818183985624</v>
+        <v>0.9187499989162792</v>
       </c>
       <c r="E72" t="n">
-        <v>1029.919960715554</v>
+        <v>10392.64586292614</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5383333265781403</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C73" t="n">
-        <v>981.7609659830729</v>
+        <v>10178.77734375</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6393939446319233</v>
+        <v>0.9232954545454546</v>
       </c>
       <c r="E73" t="n">
-        <v>981.6589632901279</v>
+        <v>10176.77379261364</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5666666626930237</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C74" t="n">
-        <v>935.6426798502604</v>
+        <v>9966.83056640625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5950000096451152</v>
+        <v>0.9276136376641013</v>
       </c>
       <c r="E74" t="n">
-        <v>935.5895968350497</v>
+        <v>9964.992808948864</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4933333198229472</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C75" t="n">
-        <v>891.6360066731771</v>
+        <v>9759.142578125</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5610606047240171</v>
+        <v>0.9307954473928972</v>
       </c>
       <c r="E75" t="n">
-        <v>891.5339965820312</v>
+        <v>9757.303355823864</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5483333269755045</v>
+        <v>0.5625</v>
       </c>
       <c r="C76" t="n">
-        <v>849.3438720703125</v>
+        <v>9555.50927734375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.614848486401818</v>
+        <v>0.9176136255264282</v>
       </c>
       <c r="E76" t="n">
-        <v>849.2051141912287</v>
+        <v>9553.5810546875</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5449999968210856</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C77" t="n">
-        <v>809.0294596354166</v>
+        <v>9355.7353515625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5901515158739957</v>
+        <v>0.9086363586512479</v>
       </c>
       <c r="E77" t="n">
-        <v>808.9276095303622</v>
+        <v>9353.794211647728</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5216666559378306</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C78" t="n">
-        <v>770.4497477213541</v>
+        <v>9159.5947265625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5557575794783506</v>
+        <v>0.9130681753158569</v>
       </c>
       <c r="E78" t="n">
-        <v>770.4300759055398</v>
+        <v>9157.769264914772</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6133333444595337</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C79" t="n">
-        <v>733.4998168945312</v>
+        <v>8967.34423828125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6254545477303591</v>
+        <v>0.9231818101622842</v>
       </c>
       <c r="E79" t="n">
-        <v>733.461631081321</v>
+        <v>8965.540216619318</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5883333285649618</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C80" t="n">
-        <v>698.3279825846354</v>
+        <v>8779.046875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6398484842343763</v>
+        <v>0.9132954532449896</v>
       </c>
       <c r="E80" t="n">
-        <v>698.2824845747514</v>
+        <v>8777.023082386364</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5566666722297668</v>
+        <v>0.5625</v>
       </c>
       <c r="C81" t="n">
-        <v>664.7603149414062</v>
+        <v>8593.9365234375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6012121140956879</v>
+        <v>0.9232954491268505</v>
       </c>
       <c r="E81" t="n">
-        <v>664.7082796963779</v>
+        <v>8592.114612926136</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.008547008547008548</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1984,18 +1984,18 @@
         <v>0.008547008547008548</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.008130081300813009</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C5" t="n">
         <v>0.02439024390243903</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C6" t="n">
         <v>0.03252032520325204</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C7" t="n">
         <v>0.03252032520325204</v>
@@ -2025,54 +2025,54 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.08943089430894309</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.08943089430894309</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1056910569105691</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1056910569105691</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.05982905982905983</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C12" t="n">
         <v>0.1707317073170732</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C13" t="n">
         <v>0.1707317073170732</v>
@@ -2091,98 +2091,98 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2032520325203252</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08547008547008547</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2032520325203252</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.08547008547008547</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09401709401709402</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.09401709401709402</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2601626016260163</v>
+        <v>0.2845528455284553</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2601626016260163</v>
+        <v>0.2845528455284553</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2845528455284553</v>
+        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1196581196581197</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2845528455284553</v>
+        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1196581196581197</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C22" t="n">
         <v>0.3008130081300813</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C23" t="n">
         <v>0.3008130081300813</v>
@@ -2201,123 +2201,123 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3089430894308943</v>
+        <v>0.3252032520325203</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3089430894308943</v>
+        <v>0.3252032520325203</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1623931623931624</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1623931623931624</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.3577235772357724</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.3577235772357724</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.3739837398373984</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1965811965811966</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.3739837398373984</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1965811965811966</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3983739837398374</v>
+        <v>0.3821138211382114</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2325,10 +2325,10 @@
         <v>0.2136752136752137</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3983739837398374</v>
+        <v>0.3821138211382114</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2336,7 +2336,7 @@
         <v>0.2136752136752137</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C36" t="n">
         <v>0.4065040650406504</v>
@@ -2347,7 +2347,7 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C37" t="n">
         <v>0.4065040650406504</v>
@@ -2358,10 +2358,10 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4227642276422764</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2369,10 +2369,10 @@
         <v>0.2393162393162393</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4227642276422764</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2380,54 +2380,54 @@
         <v>0.2393162393162393</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.4227642276422764</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.4227642276422764</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4552845528455284</v>
+        <v>0.4308943089430894</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.264957264957265</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4552845528455284</v>
+        <v>0.4308943089430894</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.264957264957265</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4796747967479675</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2435,10 +2435,10 @@
         <v>0.2735042735042735</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4796747967479675</v>
+        <v>0.4390243902439024</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2446,95 +2446,95 @@
         <v>0.2735042735042735</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.4878048780487805</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2905982905982906</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.4878048780487805</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.2905982905982906</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5203252032520326</v>
+        <v>0.5121951219512195</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.2991452991452991</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5203252032520326</v>
+        <v>0.5121951219512195</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.2991452991452991</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5284552845528455</v>
+        <v>0.5203252032520326</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3418803418803419</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5284552845528455</v>
+        <v>0.5203252032520326</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3418803418803419</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5528455284552846</v>
+        <v>0.5284552845528455</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3675213675213675</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5528455284552846</v>
+        <v>0.5284552845528455</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3675213675213675</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C54" t="n">
         <v>0.5609756097560976</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C55" t="n">
         <v>0.5609756097560976</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6016260162601627</v>
+        <v>0.5691056910569106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2567,10 +2567,10 @@
         <v>0.3931623931623932</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6016260162601627</v>
+        <v>0.5691056910569106</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2578,32 +2578,32 @@
         <v>0.3931623931623932</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5772357723577236</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.4017094017094017</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5772357723577236</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.4017094017094017</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.5853658536585366</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2611,10 +2611,10 @@
         <v>0.4188034188034188</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.5853658536585366</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2622,32 +2622,32 @@
         <v>0.4188034188034188</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6260162601626016</v>
+        <v>0.5934959349593496</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4273504273504273</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6260162601626016</v>
+        <v>0.5934959349593496</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4273504273504273</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6422764227642277</v>
+        <v>0.6178861788617886</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2655,10 +2655,10 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6422764227642277</v>
+        <v>0.6178861788617886</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2666,548 +2666,724 @@
         <v>0.4615384615384616</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4957264957264957</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4957264957264957</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.6341463414634146</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.6341463414634146</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6747967479674797</v>
+        <v>0.6422764227642277</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6747967479674797</v>
+        <v>0.6422764227642277</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5470085470085471</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5470085470085471</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.6747967479674797</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.6747967479674797</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7642276422764228</v>
+        <v>0.6910569105691057</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7642276422764228</v>
+        <v>0.6910569105691057</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7723577235772358</v>
+        <v>0.6991869918699187</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7723577235772358</v>
+        <v>0.6991869918699187</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7073170731707317</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.5982905982905983</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.7073170731707317</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.5982905982905983</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7886178861788617</v>
+        <v>0.7154471544715447</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7521367521367521</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7886178861788617</v>
+        <v>0.7154471544715447</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7521367521367521</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7967479674796748</v>
+        <v>0.7235772357723578</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7967479674796748</v>
+        <v>0.7235772357723578</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.7398373983739838</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.6581196581196581</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.7398373983739838</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.6581196581196581</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.7479674796747967</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7948717948717948</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.7479674796747967</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7948717948717948</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.7642276422764228</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8034188034188035</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.7642276422764228</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8034188034188035</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.7723577235772358</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.811965811965812</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.7723577235772358</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.811965811965812</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.7967479674796748</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.7967479674796748</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8943089430894309</v>
+        <v>0.8130081300813008</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8943089430894309</v>
+        <v>0.8130081300813008</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.8211382113821138</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.8211382113821138</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.7863247863247863</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.7863247863247863</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C106" t="n">
-        <v>0.926829268292683</v>
+        <v>0.8373983739837398</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C107" t="n">
-        <v>0.926829268292683</v>
+        <v>0.8373983739837398</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.8034188034188035</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C108" t="n">
-        <v>0.943089430894309</v>
+        <v>0.8699186991869918</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.905982905982906</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C109" t="n">
-        <v>0.943089430894309</v>
+        <v>0.8699186991869918</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.905982905982906</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.959349593495935</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.8290598290598291</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C111" t="n">
-        <v>0.959349593495935</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.8290598290598291</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9918699186991869</v>
+        <v>0.8943089430894309</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.8376068376068376</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9918699186991869</v>
+        <v>0.8943089430894309</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.8376068376068376</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6147592245153221</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0.9105691056910569</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9105691056910569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9186991869918699</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9186991869918699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.926829268292683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.905982905982906</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.926829268292683</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.905982905982906</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9512195121951219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9512195121951219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.959349593495935</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.959349593495935</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.967479674796748</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9401709401709402</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.967479674796748</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9401709401709402</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.975609756097561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0.9572649572649573</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.975609756097561</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>0.9572649572649573</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9918699186991869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>0.9829059829059829</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9918699186991869</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="n">
+        <v>0.9829059829059829</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C130" t="n">
         <v>1</v>
       </c>
-      <c r="B115" t="n">
-        <v>0.6246265026752832</v>
-      </c>
-      <c r="C115" t="n">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.6147592245153221</v>
+      </c>
+      <c r="C131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,7 +3398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3246,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C2" t="n">
         <v>0.008547008547008548</v>
@@ -3257,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C3" t="n">
         <v>0.0170940170940171</v>
@@ -3268,7 +3444,7 @@
         <v>0.008130081300813009</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C4" t="n">
         <v>0.0170940170940171</v>
@@ -3279,230 +3455,230 @@
         <v>0.008130081300813009</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.04273504273504274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09401709401709402</v>
+        <v>0.05982905982905983</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.05691056910569105</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09401709401709402</v>
+        <v>0.05982905982905983</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.05691056910569105</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.08547008547008547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.08547008547008547</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.09401709401709402</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.09401709401709402</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1623931623931624</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1056910569105691</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1623931623931624</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1056910569105691</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1138211382113821</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1138211382113821</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1623931623931624</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1623931623931624</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1965811965811966</v>
+        <v>0.1709401709401709</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1965811965811966</v>
+        <v>0.1709401709401709</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.1965811965811966</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3510,10 +3686,10 @@
         <v>0.1626016260162602</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.1965811965811966</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3521,10 +3697,10 @@
         <v>0.1626016260162602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2136752136752137</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3532,10 +3708,10 @@
         <v>0.1707317073170732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2136752136752137</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3543,29 +3719,29 @@
         <v>0.1707317073170732</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2032520325203252</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2032520325203252</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C31" t="n">
         <v>0.2478632478632479</v>
@@ -3573,10 +3749,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2113821138211382</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C32" t="n">
         <v>0.2478632478632479</v>
@@ -3584,35 +3760,35 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2113821138211382</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.264957264957265</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.264957264957265</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3620,10 +3796,10 @@
         <v>0.2276422764227642</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3631,10 +3807,10 @@
         <v>0.2276422764227642</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C37" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3162393162393162</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3642,10 +3818,10 @@
         <v>0.2357723577235772</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3162393162393162</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3653,10 +3829,10 @@
         <v>0.2357723577235772</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3760683760683761</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3664,10 +3840,10 @@
         <v>0.2520325203252032</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3760683760683761</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3675,823 +3851,999 @@
         <v>0.2520325203252032</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.3418803418803419</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2601626016260163</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.3418803418803419</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2601626016260163</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C43" t="n">
-        <v>0.452991452991453</v>
+        <v>0.3504273504273504</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3170731707317073</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C44" t="n">
-        <v>0.452991452991453</v>
+        <v>0.3504273504273504</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3170731707317073</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3252032520325203</v>
+        <v>0.2764227642276423</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3252032520325203</v>
+        <v>0.2764227642276423</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4957264957264957</v>
+        <v>0.3931623931623932</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.2845528455284553</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4957264957264957</v>
+        <v>0.3931623931623932</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.2845528455284553</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3495934959349594</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3495934959349594</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4188034188034188</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3577235772357724</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4188034188034188</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3577235772357724</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.3089430894308943</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.3089430894308943</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5811965811965812</v>
+        <v>0.452991452991453</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5811965811965812</v>
+        <v>0.452991452991453</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.4786324786324787</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.4786324786324787</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.3983739837398374</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.3983739837398374</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4957264957264957</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.3577235772357724</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4957264957264957</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.3577235772357724</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6324786324786325</v>
+        <v>0.5042735042735043</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6324786324786325</v>
+        <v>0.5042735042735043</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6581196581196581</v>
+        <v>0.5299145299145299</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4715447154471545</v>
+        <v>0.3739837398373984</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6581196581196581</v>
+        <v>0.5299145299145299</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4715447154471545</v>
+        <v>0.3739837398373984</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7008547008547008</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4796747967479675</v>
+        <v>0.3821138211382114</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7008547008547008</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.4796747967479675</v>
+        <v>0.3821138211382114</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7094017094017094</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7094017094017094</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.5811965811965812</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5203252032520326</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.5811965811965812</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5203252032520326</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7350427350427351</v>
+        <v>0.5982905982905983</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5447154471544715</v>
+        <v>0.4227642276422764</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7350427350427351</v>
+        <v>0.5982905982905983</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5447154471544715</v>
+        <v>0.4227642276422764</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6068376068376068</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5528455284552846</v>
+        <v>0.4308943089430894</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6068376068376068</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5528455284552846</v>
+        <v>0.4308943089430894</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.6239316239316239</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.6239316239316239</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6495726495726496</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.4715447154471545</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.6495726495726496</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.4715447154471545</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.6837606837606838</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6016260162601627</v>
+        <v>0.4796747967479675</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.6837606837606838</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6016260162601627</v>
+        <v>0.4796747967479675</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8034188034188035</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8034188034188035</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8290598290598291</v>
+        <v>0.717948717948718</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8290598290598291</v>
+        <v>0.717948717948718</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.7264957264957265</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6260162601626016</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.7264957264957265</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.6260162601626016</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7435897435897436</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7435897435897436</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.6585365853658537</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.7521367521367521</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6910569105691057</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.7521367521367521</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.6910569105691057</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.7606837606837606</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.7606837606837606</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8803418803418803</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7154471544715447</v>
+        <v>0.5934959349593496</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8803418803418803</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7154471544715447</v>
+        <v>0.5934959349593496</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7863247863247863</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7398373983739838</v>
+        <v>0.6178861788617886</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7863247863247863</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7398373983739838</v>
+        <v>0.6178861788617886</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C99" t="n">
-        <v>0.905982905982906</v>
+        <v>0.7948717948717948</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.6260162601626016</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C100" t="n">
-        <v>0.905982905982906</v>
+        <v>0.7948717948717948</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.6260162601626016</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9145299145299145</v>
+        <v>0.8034188034188035</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.7967479674796748</v>
+        <v>0.6422764227642277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9145299145299145</v>
+        <v>0.8034188034188035</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.7967479674796748</v>
+        <v>0.6422764227642277</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8290598290598291</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8290598290598291</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.8376068376068376</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.8376068376068376</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.6747967479674797</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.6747967479674797</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9572649572649573</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.967479674796748</v>
+        <v>0.6991869918699187</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9572649572649573</v>
+        <v>0.8547008547008547</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.967479674796748</v>
+        <v>0.6991869918699187</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9658119658119658</v>
+        <v>0.8632478632478633</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.975609756097561</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9658119658119658</v>
+        <v>0.8632478632478633</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.975609756097561</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9914529914529915</v>
+        <v>0.8803418803418803</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0.7154471544715447</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6246265026752832</v>
+        <v>0.6148287123896881</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9914529914529915</v>
+        <v>0.8803418803418803</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
+        <v>0.7154471544715447</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.7479674796747967</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.7479674796747967</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.905982905982906</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.905982905982906</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9145299145299145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.8943089430894309</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9487179487179487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.8943089430894309</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9572649572649573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9105691056910569</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9572649572649573</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9105691056910569</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9743589743589743</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.967479674796748</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9743589743589743</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0.967479674796748</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9829059829059829</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9829059829059829</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9914529914529915</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="n">
         <v>1</v>
       </c>
-      <c r="B115" t="n">
-        <v>0.6246265026752832</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="B130" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9914529914529915</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.6148287123896881</v>
+      </c>
+      <c r="C131" t="n">
         <v>1</v>
       </c>
     </row>
